--- a/LibraryProject/기능정의서.xlsx
+++ b/LibraryProject/기능정의서.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kopo\kopo-02-java\LibraryProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kopo-02-java\LibraryProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25B1E98-4FD3-426E-A999-842A92557D6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2724" tabRatio="706"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="24105" windowHeight="12795" tabRatio="706" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서이력관리" sheetId="3" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
   <si>
     <t>Category</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -445,10 +446,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">도서를 등록하는 기능이다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">도서를 삭제하는 기능이다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -645,13 +642,45 @@
     <t>개발여부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">도서를 등록하는 기능이다. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대출중 : true , 대출가능 : false</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출중 : true , 대출가능 : false</t>
+  </si>
+  <si>
+    <t>reserveList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 연체중이면 true, 연체중 아니면 false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1628,7 +1657,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="14" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,7 +1669,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="14" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1656,7 +1685,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="183" fontId="14" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,6 +1733,105 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1713,6 +1841,50 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1722,19 +1894,14 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1744,149 +1911,11 @@
     </xf>
     <xf numFmtId="31" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_D Project_Showing_WBS_Ver2.0(Draft)" xfId="1"/>
+    <cellStyle name="표준_D Project_Showing_WBS_Ver2.0(Draft)" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1977,6 +2006,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2012,6 +2058,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2187,36 +2250,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E40" sqref="E40"/>
       <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="78.69921875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.8984375" style="1"/>
+    <col min="1" max="1" width="1.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="78.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="2:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2381,42 +2444,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="9.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.796875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.796875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.77734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="6" customWidth="1"/>
-    <col min="6" max="7" width="40.19921875" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="8.8984375" style="6"/>
+    <col min="6" max="7" width="40.21875" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
         <v>3</v>
@@ -2424,14 +2487,14 @@
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="9" t="s">
         <v>17</v>
@@ -2439,14 +2502,14 @@
       <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="95">
         <v>44321</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11"/>
       <c r="C5" s="5"/>
@@ -2455,505 +2518,519 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="62" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="87" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>59</v>
-      </c>
       <c r="E7" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="46"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F7" s="84"/>
+      <c r="G7" s="88"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="70" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="80"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="58" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="57" t="s">
+      <c r="D9" s="47"/>
+      <c r="E9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="97" t="s">
-        <v>46</v>
+      <c r="G9" s="71" t="s">
+        <v>45</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="D12" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="73" t="s">
+      <c r="E13" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="53"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="90" t="s">
+      <c r="F13" s="48"/>
+      <c r="G13" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="G15" s="67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="53"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="53"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="53"/>
-    </row>
-    <row r="15" spans="1:8" ht="38.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="91" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="49" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="89" t="s">
+      <c r="C18" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="53"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="75" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="48"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="53"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="75" t="s">
+      <c r="E22" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="61"/>
-      <c r="G20" s="53"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="61"/>
-      <c r="G21" s="53"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="53"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="83" t="s">
+      <c r="F23" s="48"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D26" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="48"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="48"/>
+      <c r="G27" s="70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="53"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="61"/>
-      <c r="G24" s="53"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="53"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="53"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="96" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="53"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="48"/>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="38"/>
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="94" t="s">
+      <c r="D29" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="77" t="s">
+      <c r="E29" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="76" t="s">
-        <v>39</v>
+      <c r="F29" s="58" t="s">
+        <v>78</v>
       </c>
       <c r="G29" s="35"/>
     </row>
-    <row r="30" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="38"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="81"/>
+      <c r="D30" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="38"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="94" t="s">
+      <c r="C31" s="81"/>
+      <c r="D31" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="76" t="s">
+      <c r="E31" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="65" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="72"/>
-    </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="54"/>
+    </row>
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
     </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
-      <c r="F37" s="66"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="51"/>
+    </row>
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
     </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
     </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0"/>
